--- a/results/08-2022/comparison-deflators-08-2022.xlsx
+++ b/results/08-2022/comparison-deflators-08-2022.xlsx
@@ -704,31 +704,31 @@
         <v>0.3444</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5374</v>
+        <v>-0.6584</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1464</v>
+        <v>-0.1397</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.203</v>
+        <v>-0.204</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0628</v>
+        <v>-0.0636</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1661</v>
+        <v>-0.1667</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1835</v>
+        <v>-0.1492</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3168</v>
+        <v>-0.3178</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4458</v>
+        <v>-0.4466</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0834</v>
+        <v>-0.0842</v>
       </c>
     </row>
     <row r="6">
@@ -804,31 +804,31 @@
         <v>-0.026</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0483</v>
+        <v>-0.015</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0253</v>
+        <v>0.0076</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0463</v>
+        <v>-0.0154</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1096</v>
+        <v>0.1387</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0387</v>
+        <v>0.0323</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0122</v>
+        <v>-0.0206</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0537</v>
+        <v>-0.0608</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0951</v>
+        <v>-0.101</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0109</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="8">
@@ -869,16 +869,16 @@
         <v>-0.246</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.137</v>
+        <v>-0.1373</v>
       </c>
       <c r="N8" t="n">
-        <v>0.137</v>
+        <v>0.1364</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1538</v>
+        <v>0.1531</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2953</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="9">
@@ -904,31 +904,31 @@
         <v>0.0537</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1712</v>
+        <v>-0.1372</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1312</v>
+        <v>-0.1411</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0808</v>
+        <v>-0.0811</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0629</v>
+        <v>-0.0747</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0236</v>
+        <v>-0.0238</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0333</v>
+        <v>-0.0335</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0649</v>
+        <v>-0.065</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0551</v>
+        <v>-0.0552</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0465</v>
+        <v>-0.0467</v>
       </c>
     </row>
     <row r="10">
@@ -1057,28 +1057,28 @@
         <v>-0.8095</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.459</v>
+        <v>-0.3817</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.3127</v>
+        <v>-0.2373</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.2116</v>
+        <v>-0.138</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.066</v>
+        <v>0.006</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.1769</v>
+        <v>-0.2023</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0117</v>
+        <v>-0.0366</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0103</v>
+        <v>-0.0347</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.009</v>
+        <v>-0.0329</v>
       </c>
     </row>
     <row r="13">
@@ -1104,31 +1104,31 @@
         <v>-0.0674</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1903</v>
+        <v>-0.1832</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0742</v>
+        <v>-0.073</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0613</v>
+        <v>-0.0599</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6077</v>
+        <v>-0.6065</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6349</v>
+        <v>-0.6337</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3109</v>
+        <v>-0.3066</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1914</v>
+        <v>-0.1875</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3319</v>
+        <v>-0.3283</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.2479</v>
+        <v>-0.2448</v>
       </c>
     </row>
     <row r="14">
@@ -1204,31 +1204,31 @@
         <v>-4.5399</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.1782</v>
+        <v>-3.3077</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.2827</v>
+        <v>-2.0738</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.1715</v>
+        <v>-2.0512</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.0679</v>
+        <v>-2.9627</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.301</v>
+        <v>-1.2317</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.8976</v>
+        <v>-0.9276</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.3784</v>
+        <v>-0.405</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.5389</v>
+        <v>-0.5642</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3732</v>
+        <v>-0.3977</v>
       </c>
     </row>
     <row r="16">
@@ -1304,31 +1304,31 @@
         <v>0.7258</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.7065</v>
+        <v>-0.6098</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1143</v>
+        <v>-0.2014</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1955</v>
+        <v>-0.1956</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.036</v>
+        <v>-0.0361</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1144</v>
+        <v>-0.1146</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.1074</v>
+        <v>-0.0702</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.2614</v>
+        <v>-0.262</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.38</v>
+        <v>-0.3806</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0184</v>
+        <v>-0.0189</v>
       </c>
     </row>
     <row r="18">
@@ -1504,31 +1504,31 @@
         <v>-0.998</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8289</v>
+        <v>0.7322</v>
       </c>
       <c r="I21" t="n">
-        <v>0.102</v>
+        <v>0.189</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1289</v>
+        <v>0.129</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.065</v>
+        <v>-0.0648</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.008</v>
+        <v>-0.0079</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.0214</v>
+        <v>-0.0586</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1242</v>
+        <v>0.1248</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2465</v>
+        <v>0.247</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.1076</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="22">
@@ -1604,28 +1604,28 @@
         <v>0.0305</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.086</v>
+        <v>-0.0723</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0369</v>
+        <v>-0.0232</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0897</v>
+        <v>0.1034</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0326</v>
+        <v>0.0463</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1987</v>
+        <v>0.2018</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1589</v>
+        <v>0.1618</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1279</v>
+        <v>0.1305</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0972</v>
+        <v>0.0997</v>
       </c>
       <c r="P23" t="n">
         <v>-0.0793</v>
@@ -2054,31 +2054,31 @@
         <v>-0.0645</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0039</v>
+        <v>-0.117</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0343</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="33">
@@ -2154,31 +2154,31 @@
         <v>-0.0003</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0031</v>
+        <v>0.0364</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0029</v>
+        <v>0.0357</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0029</v>
+        <v>0.0338</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0031</v>
+        <v>0.0323</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0017</v>
+        <v>-0.0082</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0014</v>
+        <v>-0.0098</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0012</v>
+        <v>-0.0083</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0009</v>
+        <v>-0.0068</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0009</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="35">
@@ -2219,16 +2219,16 @@
         <v>-0.0074</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0072</v>
+        <v>-0.0075</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0071</v>
+        <v>-0.0077</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0006</v>
+        <v>-0.0002</v>
       </c>
       <c r="P35" t="n">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="36">
@@ -2254,31 +2254,31 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0002</v>
+        <v>0.0342</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-0.0099</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0118</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="37">
@@ -2407,28 +2407,28 @@
         <v>0.0008</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.0002</v>
+        <v>0.0771</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.0002</v>
+        <v>0.0752</v>
       </c>
       <c r="K39" t="n">
-        <v>0.007</v>
+        <v>0.0807</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0001</v>
+        <v>0.0721</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0001</v>
+        <v>-0.0253</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-0.0249</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>-0.0244</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-0.0239</v>
       </c>
     </row>
     <row r="40">
@@ -2454,31 +2454,31 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0002</v>
+        <v>0.0073</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="41">
@@ -2554,31 +2554,31 @@
         <v>0.013</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3774</v>
+        <v>0.2478</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0185</v>
+        <v>0.2274</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0232</v>
+        <v>0.1434</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0039</v>
+        <v>0.1013</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0149</v>
+        <v>0.0543</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0154</v>
+        <v>-0.0454</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0159</v>
+        <v>-0.0426</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0087</v>
+        <v>-0.0341</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.0043</v>
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="43">
@@ -2654,31 +2654,31 @@
         <v>-0.0149</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0009</v>
+        <v>0.0976</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-0.087</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.0372</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="45">
@@ -2854,31 +2854,31 @@
         <v>0.08</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3703</v>
+        <v>0.2736</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.0001</v>
+        <v>0.0869</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0008</v>
+        <v>-0.0006</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0012</v>
+        <v>-0.001</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0014</v>
+        <v>-0.0013</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0015</v>
+        <v>-0.0387</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.0016</v>
+        <v>-0.001</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.0015</v>
+        <v>-0.001</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.0014</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="49">
@@ -2954,31 +2954,31 @@
         <v>0.0299</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0305</v>
+        <v>0.0442</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0302</v>
+        <v>0.0439</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0301</v>
+        <v>0.0438</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0022</v>
+        <v>0.0158</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0032</v>
+        <v>0.0063</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0022</v>
+        <v>0.0051</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0014</v>
+        <v>0.004</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0005</v>
+        <v>0.003</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.002</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="51">

--- a/results/08-2022/comparison-deflators-08-2022.xlsx
+++ b/results/08-2022/comparison-deflators-08-2022.xlsx
@@ -760,25 +760,25 @@
         <v>-0.014</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.0522</v>
+        <v>-0.0703</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0554</v>
+        <v>-0.0731</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0378</v>
+        <v>-0.055</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0318</v>
+        <v>-0.0487</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0228</v>
+        <v>-0.0394</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0112</v>
+        <v>-0.0275</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0086</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="7">
@@ -872,13 +872,13 @@
         <v>-0.1373</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1364</v>
+        <v>0.1478</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1531</v>
+        <v>0.1643</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2944</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="9">
@@ -1207,28 +1207,28 @@
         <v>-3.3077</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.0738</v>
+        <v>-2.0918</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.0512</v>
+        <v>-2.087</v>
       </c>
       <c r="K15" t="n">
-        <v>-2.9627</v>
+        <v>-2.9915</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.2317</v>
+        <v>-1.2599</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.9276</v>
+        <v>-0.9552</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.405</v>
+        <v>-0.4207</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.5642</v>
+        <v>-0.5797</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3977</v>
+        <v>-0.4185</v>
       </c>
     </row>
     <row r="16">
@@ -1557,28 +1557,28 @@
         <v>-0.0171</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0121</v>
+        <v>-0.0172</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0145</v>
+        <v>-0.0195</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0157</v>
+        <v>-0.0206</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0075</v>
+        <v>-0.0122</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0058</v>
+        <v>-0.0104</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0022</v>
+        <v>-0.0067</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0007</v>
+        <v>-0.0037</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0023</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="23">
@@ -1657,28 +1657,28 @@
         <v>-0.1373</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1289</v>
+        <v>-0.1418</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0836</v>
+        <v>-0.0963</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0609</v>
+        <v>-0.0672</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0558</v>
+        <v>-0.062</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.039</v>
+        <v>-0.0451</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0287</v>
+        <v>-0.0348</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0212</v>
+        <v>-0.0272</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0051</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="25">
@@ -2110,25 +2110,25 @@
         <v>-0.0086</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0087</v>
+        <v>-0.0268</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0088</v>
+        <v>-0.0265</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0089</v>
+        <v>-0.0262</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0089</v>
+        <v>-0.0258</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0088</v>
+        <v>-0.0254</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.0087</v>
+        <v>-0.025</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.0087</v>
+        <v>-0.0247</v>
       </c>
     </row>
     <row r="34">
@@ -2222,13 +2222,13 @@
         <v>-0.0075</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0077</v>
+        <v>0.0037</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.0002</v>
+        <v>0.011</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0001</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="36">
@@ -2557,28 +2557,28 @@
         <v>0.2478</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2274</v>
+        <v>0.2094</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1434</v>
+        <v>0.1077</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1013</v>
+        <v>0.0725</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0543</v>
+        <v>0.0262</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0454</v>
+        <v>-0.073</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0426</v>
+        <v>-0.0583</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.0341</v>
+        <v>-0.0495</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.0287</v>
+        <v>-0.0496</v>
       </c>
     </row>
     <row r="43">
@@ -2907,28 +2907,28 @@
         <v>0.0015</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-0.0049</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>-0.0047</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-0.0046</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>-0.0045</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>-0.0044</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>-0.0043</v>
       </c>
     </row>
     <row r="50">
@@ -3007,28 +3007,28 @@
         <v>-0.0101</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0029</v>
+        <v>-0.01</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0077</v>
+        <v>-0.005</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0014</v>
+        <v>-0.0049</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0014</v>
+        <v>-0.0048</v>
       </c>
       <c r="M51" t="n">
-        <v>0.0014</v>
+        <v>-0.0048</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0013</v>
+        <v>-0.0047</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0014</v>
+        <v>-0.0046</v>
       </c>
       <c r="P51" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
